--- a/data/experimental_data/GFI1B_small_enh_deletion/Cell_growth_exp2_3.xlsx
+++ b/data/experimental_data/GFI1B_small_enh_deletion/Cell_growth_exp2_3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaotianliao/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaotianliao/SankaranLab/mpn-GWAS/data/experimental_data/GFI1B_small_enh_deletion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB491B73-EA93-0F43-AE71-8B0A25A1CBF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345299E0-D300-4A49-A6C9-E968A59BCD45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11200" yWindow="900" windowWidth="18900" windowHeight="19140" xr2:uid="{51512780-31D0-BF4A-9EBE-BE718F7AB182}"/>
+    <workbookView xWindow="11180" yWindow="460" windowWidth="18900" windowHeight="19140" xr2:uid="{51512780-31D0-BF4A-9EBE-BE718F7AB182}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t>AAVS1#1</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>EXP 2</t>
+  </si>
+  <si>
+    <t>%CD34</t>
+  </si>
+  <si>
+    <t>CD34</t>
   </si>
 </sst>
 </file>
@@ -461,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F331B9D-3869-284B-80C5-DE903904C189}">
-  <dimension ref="D6:L32"/>
+  <dimension ref="D6:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="119" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="119" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -473,7 +479,7 @@
     <col min="10" max="10" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="4:12" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="4:14" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>16</v>
       </c>
@@ -498,8 +504,14 @@
       <c r="L6" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="M6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="4:14" x14ac:dyDescent="0.2">
       <c r="E7" s="4" t="s">
         <v>0</v>
       </c>
@@ -526,10 +538,19 @@
         <v>9.5999999999999992E-3</v>
       </c>
       <c r="L7">
-        <v>20380</v>
-      </c>
-    </row>
-    <row r="8" spans="4:12" x14ac:dyDescent="0.2">
+        <f>K7*J7</f>
+        <v>20380.353488372093</v>
+      </c>
+      <c r="M7">
+        <f>61.6/100</f>
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="N7">
+        <f>ROUND(M7*J7,0)</f>
+        <v>1307739</v>
+      </c>
+    </row>
+    <row r="8" spans="4:14" x14ac:dyDescent="0.2">
       <c r="E8" s="4" t="s">
         <v>1</v>
       </c>
@@ -555,10 +576,18 @@
         <v>1.01E-2</v>
       </c>
       <c r="L8">
-        <v>20869</v>
-      </c>
-    </row>
-    <row r="9" spans="4:12" x14ac:dyDescent="0.2">
+        <f t="shared" ref="L8:L15" si="2">K8*J8</f>
+        <v>20869.227642276423</v>
+      </c>
+      <c r="M8">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="N8">
+        <f>ROUND(M8*J8,0)</f>
+        <v>1493906</v>
+      </c>
+    </row>
+    <row r="9" spans="4:14" x14ac:dyDescent="0.2">
       <c r="E9" s="4" t="s">
         <v>2</v>
       </c>
@@ -584,10 +613,18 @@
         <v>2.5999999999999999E-3</v>
       </c>
       <c r="L9">
-        <v>6270</v>
-      </c>
-    </row>
-    <row r="10" spans="4:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>6270.2345276872957</v>
+      </c>
+      <c r="M9">
+        <v>0.69</v>
+      </c>
+      <c r="N9">
+        <f>ROUND(M9*J9,0)</f>
+        <v>1664024</v>
+      </c>
+    </row>
+    <row r="10" spans="4:14" x14ac:dyDescent="0.2">
       <c r="E10" s="4" t="s">
         <v>3</v>
       </c>
@@ -595,7 +632,7 @@
         <v>368000</v>
       </c>
       <c r="G10">
-        <f t="shared" ref="G10:G15" si="2">F10-50000-3000</f>
+        <f t="shared" ref="G10:G15" si="3">F10-50000-3000</f>
         <v>315000</v>
       </c>
       <c r="H10">
@@ -613,10 +650,18 @@
         <v>1.5699999999999999E-2</v>
       </c>
       <c r="L10">
-        <v>34115</v>
-      </c>
-    </row>
-    <row r="11" spans="4:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>34115.352380952383</v>
+      </c>
+      <c r="M10">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="N10">
+        <f>ROUND(M10*J10,0)</f>
+        <v>1518894</v>
+      </c>
+    </row>
+    <row r="11" spans="4:14" x14ac:dyDescent="0.2">
       <c r="E11" s="4" t="s">
         <v>4</v>
       </c>
@@ -624,7 +669,7 @@
         <v>368000</v>
       </c>
       <c r="G11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>315000</v>
       </c>
       <c r="H11">
@@ -642,10 +687,18 @@
         <v>1.21E-2</v>
       </c>
       <c r="L11">
-        <v>29968</v>
-      </c>
-    </row>
-    <row r="12" spans="4:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>29968.050793650793</v>
+      </c>
+      <c r="M11">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="N11">
+        <f>ROUND(M11*J11,0)</f>
+        <v>1825327</v>
+      </c>
+    </row>
+    <row r="12" spans="4:14" x14ac:dyDescent="0.2">
       <c r="E12" s="4" t="s">
         <v>5</v>
       </c>
@@ -653,7 +706,7 @@
         <v>483000</v>
       </c>
       <c r="G12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>430000</v>
       </c>
       <c r="H12">
@@ -671,10 +724,18 @@
         <v>1.21E-2</v>
       </c>
       <c r="L12">
-        <v>27182</v>
-      </c>
-    </row>
-    <row r="13" spans="4:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>27182.790697674416</v>
+      </c>
+      <c r="M12">
+        <v>0.753</v>
+      </c>
+      <c r="N12">
+        <f t="shared" ref="N8:O15" si="4">ROUND(M12*J12,0)</f>
+        <v>1691623</v>
+      </c>
+    </row>
+    <row r="13" spans="4:14" x14ac:dyDescent="0.2">
       <c r="E13" s="4" t="s">
         <v>6</v>
       </c>
@@ -682,7 +743,7 @@
         <v>552000</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>499000</v>
       </c>
       <c r="H13">
@@ -700,10 +761,18 @@
         <v>1.3100000000000001E-2</v>
       </c>
       <c r="L13">
-        <v>50430</v>
-      </c>
-    </row>
-    <row r="14" spans="4:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>50430.012024048097</v>
+      </c>
+      <c r="M13">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="N13">
+        <f>ROUND(M13*J13,0)</f>
+        <v>2760177</v>
+      </c>
+    </row>
+    <row r="14" spans="4:14" x14ac:dyDescent="0.2">
       <c r="E14" s="4" t="s">
         <v>7</v>
       </c>
@@ -711,7 +780,7 @@
         <v>759000</v>
       </c>
       <c r="G14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>706000</v>
       </c>
       <c r="H14">
@@ -729,10 +798,18 @@
         <v>9.1999999999999998E-3</v>
       </c>
       <c r="L14">
-        <v>34716</v>
-      </c>
-    </row>
-    <row r="15" spans="4:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>34716.186968838527</v>
+      </c>
+      <c r="M14">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="N14">
+        <f>ROUND(M14*J14,0)</f>
+        <v>2743333</v>
+      </c>
+    </row>
+    <row r="15" spans="4:14" x14ac:dyDescent="0.2">
       <c r="E15" s="4" t="s">
         <v>8</v>
       </c>
@@ -740,7 +817,7 @@
         <v>391000</v>
       </c>
       <c r="G15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>338000</v>
       </c>
       <c r="H15">
@@ -758,7 +835,15 @@
         <v>1.8599999999999998E-2</v>
       </c>
       <c r="L15">
-        <v>78535</v>
+        <f>K15*J15</f>
+        <v>78535.473372781053</v>
+      </c>
+      <c r="M15">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="N15">
+        <f>ROUND(M15*J15,0)</f>
+        <v>3120307</v>
       </c>
     </row>
     <row r="17" spans="4:12" x14ac:dyDescent="0.2">
@@ -834,25 +919,25 @@
         <v>546000</v>
       </c>
       <c r="G21">
-        <f t="shared" ref="G21:G28" si="3">F21-50000-1500-75000</f>
+        <f t="shared" ref="G21:G28" si="5">F21-50000-1500-75000</f>
         <v>419500</v>
       </c>
       <c r="H21">
         <v>1200000</v>
       </c>
       <c r="I21">
-        <f t="shared" ref="I21:I28" si="4">H21/G21</f>
+        <f t="shared" ref="I21:I28" si="6">H21/G21</f>
         <v>2.8605482717520858</v>
       </c>
       <c r="J21">
-        <f t="shared" ref="J21:J28" si="5">F21*I21</f>
+        <f t="shared" ref="J21:J28" si="7">F21*I21</f>
         <v>1561859.3563766389</v>
       </c>
       <c r="K21">
         <v>5.7500000000000002E-2</v>
       </c>
       <c r="L21">
-        <f t="shared" ref="L21:L28" si="6">J21*K21</f>
+        <f t="shared" ref="L21:L28" si="8">J21*K21</f>
         <v>89806.912991656733</v>
       </c>
     </row>
@@ -864,25 +949,25 @@
         <v>728000</v>
       </c>
       <c r="G22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>601500</v>
       </c>
       <c r="H22">
         <v>1320000</v>
       </c>
       <c r="I22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.1945137157107233</v>
       </c>
       <c r="J22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1597605.9850374064</v>
       </c>
       <c r="K22">
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="L22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>68697.057356608479</v>
       </c>
     </row>
@@ -895,25 +980,25 @@
         <v>572000</v>
       </c>
       <c r="G23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>445500</v>
       </c>
       <c r="H23">
         <v>2400000</v>
       </c>
       <c r="I23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.3872053872053876</v>
       </c>
       <c r="J23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3081481.4814814818</v>
       </c>
       <c r="K23">
         <v>4.7E-2</v>
       </c>
       <c r="L23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>144829.62962962964</v>
       </c>
     </row>
@@ -926,25 +1011,25 @@
         <v>676000</v>
       </c>
       <c r="G24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>549500</v>
       </c>
       <c r="H24">
         <v>2000000</v>
       </c>
       <c r="I24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.6396724294813465</v>
       </c>
       <c r="J24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2460418.5623293901</v>
       </c>
       <c r="K24">
         <v>9.5600000000000004E-2</v>
       </c>
       <c r="L24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>235216.0145586897</v>
       </c>
     </row>
@@ -956,25 +1041,25 @@
         <v>650000</v>
       </c>
       <c r="G25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>523500</v>
       </c>
       <c r="H25">
         <v>2920000</v>
       </c>
       <c r="I25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.577841451766953</v>
       </c>
       <c r="J25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3625596.9436485195</v>
       </c>
       <c r="K25">
         <v>4.24E-2</v>
       </c>
       <c r="L25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>153725.31041069722</v>
       </c>
     </row>
@@ -987,25 +1072,25 @@
         <v>910000</v>
       </c>
       <c r="G26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>783500</v>
       </c>
       <c r="H26">
         <v>3000000</v>
       </c>
       <c r="I26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.8289725590299937</v>
       </c>
       <c r="J26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3484365.0287172943</v>
       </c>
       <c r="K26">
         <v>9.5799999999999996E-2</v>
       </c>
       <c r="L26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>333802.16975111677</v>
       </c>
     </row>
@@ -1018,25 +1103,25 @@
         <v>468000</v>
       </c>
       <c r="G27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>341500</v>
       </c>
       <c r="H27">
         <v>3720000</v>
       </c>
       <c r="I27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10.893118594436311</v>
       </c>
       <c r="J27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5097979.5021961937</v>
       </c>
       <c r="K27">
         <v>8.8200000000000001E-2</v>
       </c>
       <c r="L27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>449641.79209370428</v>
       </c>
     </row>
@@ -1048,25 +1133,25 @@
         <v>546000</v>
       </c>
       <c r="G28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>419500</v>
       </c>
       <c r="H28">
         <v>3000000</v>
       </c>
       <c r="I28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7.1513706793802143</v>
       </c>
       <c r="J28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3904648.3909415971</v>
       </c>
       <c r="K28">
         <v>7.5300000000000006E-2</v>
       </c>
       <c r="L28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>294020.02383790229</v>
       </c>
     </row>
